--- a/xlsx2owl-Example.xlsx
+++ b/xlsx2owl-Example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60BA6FD-F8D8-412C-9B9E-5652AF30F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE51C8A-9BFE-4CEB-81C5-3F023D31830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27525" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="IndAttributes" sheetId="6" r:id="rId6"/>
     <sheet name="Datatypes" sheetId="7" r:id="rId7"/>
     <sheet name="UpperClasses" sheetId="8" r:id="rId8"/>
-    <sheet name="OntologyMetadata" sheetId="9" r:id="rId9"/>
-    <sheet name="README" sheetId="10" r:id="rId10"/>
+    <sheet name="prefixes" sheetId="11" r:id="rId9"/>
+    <sheet name="OntologyMetadata" sheetId="9" r:id="rId10"/>
+    <sheet name="README" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Attributes!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Individuals!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Relations!$A$1:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -480,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>Domain</t>
   </si>
@@ -660,6 +661,51 @@
   </si>
   <si>
     <t>CI Mock FIle</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>emmo</t>
+  </si>
+  <si>
+    <t>http://emmo.info/emmo#</t>
+  </si>
+  <si>
+    <t>pmdco</t>
+  </si>
+  <si>
+    <t>https://material-digital.de/pmdco/</t>
+  </si>
+  <si>
+    <t>spo</t>
+  </si>
+  <si>
+    <t>https://w3id.org/steel/ProcessOntology/</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
@@ -832,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -912,13 +958,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1207,10 +1267,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1617,7 +1673,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F7" sqref="F7"/>
       <selection pane="topRight"/>
@@ -1797,19 +1853,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2 B4:B5 B7:B17 B90:B1048576 B19:B38 B40:B70 B72:B88">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1818,6 +1874,42 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21.75" bestFit="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="18.75">
+      <c r="A1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:D10"/>
   <sheetViews>
@@ -1985,10 +2077,10 @@
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576 F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2144,10 +2236,10 @@
   </sheetData>
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4 B13 B22:B1048576 E1:E1048576 B42:B49">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2217,10 +2309,10 @@
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2274,10 +2366,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -2350,10 +2442,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -2698,34 +2790,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A4:A9 A11 A13:A30 A33:A41 A43:A48 A51:A58 A60:A82">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -2734,37 +2826,83 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC785D35-B1A5-44A0-A743-865F33FA42EF}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="21.75" bestFit="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" ht="18.75">
-      <c r="A1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1"/>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx2owl-Example.xlsx
+++ b/xlsx2owl-Example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE51C8A-9BFE-4CEB-81C5-3F023D31830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FD56C-E442-461C-89BA-4813F5DF4BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Individuals!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Relations!$A$1:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Domain</t>
   </si>
@@ -624,9 +624,6 @@
     <t>attributeB Description EN</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
     <t>relation</t>
   </si>
   <si>
-    <t>value individual</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -706,6 +700,39 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>individualA</t>
+  </si>
+  <si>
+    <t>individualB</t>
+  </si>
+  <si>
+    <t>Individual A</t>
+  </si>
+  <si>
+    <t>Individual B</t>
+  </si>
+  <si>
+    <t>Individual A description</t>
+  </si>
+  <si>
+    <t>Individual B description</t>
+  </si>
+  <si>
+    <t>individualC</t>
+  </si>
+  <si>
+    <t>Individual C</t>
+  </si>
+  <si>
+    <t>Individual A notes</t>
+  </si>
+  <si>
+    <t>Individual B notes</t>
+  </si>
+  <si>
+    <t>value-individual</t>
   </si>
 </sst>
 </file>
@@ -1888,18 +1915,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="23" customFormat="1" ht="18.75">
       <c r="A1" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -2270,14 +2297,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
@@ -2294,16 +2321,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2383,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576 D1:D1048576">
+  <conditionalFormatting sqref="B1:B1048576 D1:D1048576 E2:E3">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,10 +2409,10 @@
   <sheetPr>
     <tabColor rgb="FF6600FF"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2352,16 +2424,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2486,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2415,23 +2498,34 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="D2" s="15"/>
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="15"/>
@@ -2509,17 +2603,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC785D35-B1A5-44A0-A743-865F33FA42EF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2837,66 +2931,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx2owl-Example.xlsx
+++ b/xlsx2owl-Example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE51C8A-9BFE-4CEB-81C5-3F023D31830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5DB2C9-F2D6-46D9-9700-44B63472FF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>Domain</t>
   </si>
@@ -706,13 +706,19 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>This Spreadsheet is subject to the terms of the Mozilla Public License, v. 2.0. If a copy of the MPL was not distributed with this file, You can obtain one at https://mozilla.org/MPL/2.0/.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -798,6 +804,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -878,7 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -889,16 +902,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -918,13 +931,12 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +972,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1673,7 +1691,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F7" sqref="F7"/>
       <selection pane="topRight"/>
@@ -1886,14 +1904,14 @@
     <col min="3" max="3" width="16.5" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" ht="18.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="18.75">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1911,72 +1929,79 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10" style="25" customWidth="1"/>
+    <col min="1" max="1" width="92.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10" style="24" customWidth="1"/>
     <col min="3" max="3" width="106.625" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="23.25">
-      <c r="A2" s="26"/>
-      <c r="C2" s="27"/>
+    <row r="1" spans="1:4">
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5">
+      <c r="A2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="23.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="23.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="23.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" s="31" customFormat="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" s="30" customFormat="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2039,40 +2064,40 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -2105,7 +2130,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2117,7 +2142,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
@@ -2150,7 +2175,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
@@ -2165,73 +2190,49 @@
       <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="19"/>
+      <c r="B42" s="18"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="19"/>
+      <c r="B43" s="18"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="19"/>
+      <c r="B44" s="18"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="19"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="19"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="19"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="19"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="15"/>
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -2282,7 +2283,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="19" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
@@ -2430,15 +2431,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="D3" s="15"/>
-    </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
@@ -2497,8 +2492,8 @@
     <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:1" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2829,73 +2824,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC785D35-B1A5-44A0-A743-865F33FA42EF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2904,5 +2899,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx2owl-Example.xlsx
+++ b/xlsx2owl-Example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5DB2C9-F2D6-46D9-9700-44B63472FF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F66BF-973C-48DF-B72E-D525EE4313AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,71 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8BCC2114-AB7F-4CA7-9A44-64A29F68AA72}</author>
+    <author>tc={0DA84FE5-3368-4599-A271-BA2A89CCC9FB}</author>
+    <author>tc={17AE9D92-54CD-4BF6-91CE-A50B5D6A9640}</author>
+    <author>tc={FC154D71-3886-4D09-9EE0-C2F309D61514}</author>
+    <author>tc={0B832930-2D20-49F2-A1B0-F35A09A6E756}</author>
+    <author>tc={2865B239-A507-41F0-A463-7B7EB9343323}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8BCC2114-AB7F-4CA7-9A44-64A29F68AA72}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Suggested prefix for this ontology</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{0DA84FE5-3368-4599-A271-BA2A89CCC9FB}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Semicolon (";") separated list of persons that should be listed as contributors</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{17AE9D92-54CD-4BF6-91CE-A50B5D6A9640}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Date in ISO-Format (YYYY-MM-DD) the ontology was initially created</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="3" shapeId="0" xr:uid="{FC154D71-3886-4D09-9EE0-C2F309D61514}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    URL to the licence for this ontology</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="4" shapeId="0" xr:uid="{0B832930-2D20-49F2-A1B0-F35A09A6E756}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    dcterms:rights string to add to the ontology metadata</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="5" shapeId="0" xr:uid="{2865B239-A507-41F0-A463-7B7EB9343323}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Url to a graphical representation of the ontology, e.g. a diagram on a graph layout</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Domain</t>
   </si>
@@ -712,13 +775,52 @@
   </si>
   <si>
     <t>This Spreadsheet is subject to the terms of the Mozilla Public License, v. 2.0. If a copy of the MPL was not distributed with this file, You can obtain one at https://mozilla.org/MPL/2.0/.</t>
+  </si>
+  <si>
+    <t>prefPrefix</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Ontology description EN</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>CC-BY xlsx2owl</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>depiction</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>Author 1; Author 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -730,12 +832,14 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,12 +847,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,39 +862,46 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,12 +909,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,6 +925,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -891,7 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,6 +1100,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1285,6 +1408,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1684,6 +1811,29 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2024-02-15T11:16:51.68" personId="{00000000-0000-0000-0000-000000000000}" id="{8BCC2114-AB7F-4CA7-9A44-64A29F68AA72}">
+    <text>Suggested prefix for this ontology</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2024-02-15T11:17:27.31" personId="{00000000-0000-0000-0000-000000000000}" id="{0DA84FE5-3368-4599-A271-BA2A89CCC9FB}">
+    <text>Semicolon (";") separated list of persons that should be listed as contributors</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-02-15T11:18:11.39" personId="{00000000-0000-0000-0000-000000000000}" id="{17AE9D92-54CD-4BF6-91CE-A50B5D6A9640}">
+    <text>Date in ISO-Format (YYYY-MM-DD) the ontology was initially created</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-02-15T11:18:31.51" personId="{00000000-0000-0000-0000-000000000000}" id="{FC154D71-3886-4D09-9EE0-C2F309D61514}">
+    <text>URL to the licence for this ontology</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-02-15T11:19:18.98" personId="{00000000-0000-0000-0000-000000000000}" id="{0B832930-2D20-49F2-A1B0-F35A09A6E756}">
+    <text>dcterms:rights string to add to the ontology metadata</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2024-02-15T11:28:55.35" personId="{00000000-0000-0000-0000-000000000000}" id="{2865B239-A507-41F0-A463-7B7EB9343323}">
+    <text>Url to a graphical representation of the ontology, e.g. a diagram on a graph layout</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
@@ -1691,15 +1841,15 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F7" sqref="F7"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
@@ -1710,7 +1860,7 @@
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1788,7 +1938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1814,58 +1964,58 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="15"/>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="15"/>
-    <row r="22" spans="7:7">
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" s="4"/>
     </row>
-    <row r="36" s="4" customFormat="1" ht="15"/>
-    <row r="37" s="4" customFormat="1" ht="15"/>
-    <row r="47" s="4" customFormat="1" ht="15"/>
-    <row r="54" spans="6:6" s="4" customFormat="1" ht="15"/>
-    <row r="55" spans="6:6" s="4" customFormat="1" ht="15">
+    <row r="36" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="37" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="47" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="6:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="6:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F55" s="7"/>
     </row>
-    <row r="64" spans="6:6" s="4" customFormat="1" ht="15"/>
-    <row r="72" spans="4:7">
+    <row r="64" spans="6:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="4:7">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="4:7">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="4:7">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="4:7">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="4:7">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D77" s="8"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="4:7">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="4:7">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="4:7">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="G83" s="4"/>
     </row>
@@ -1873,17 +2023,17 @@
   <conditionalFormatting sqref="B1:B2 B4:B5 B7:B17 B90:B1048576 B19:B38 B40:B70 B72:B88">
     <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1892,19 +2042,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.75" bestFit="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" ht="18.75">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
@@ -1914,16 +2069,55 @@
       <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1935,7 +2129,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.25" style="24" customWidth="1"/>
     <col min="2" max="2" width="10" style="24" customWidth="1"/>
@@ -1943,60 +2137,60 @@
     <col min="4" max="4" width="11.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:4" ht="23.25">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="27"/>
       <c r="C3" s="26"/>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="1:4" ht="23.25">
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="26"/>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="1:4" ht="23.25">
+    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="27"/>
       <c r="C5" s="29"/>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" spans="1:4" s="30" customFormat="1">
+    <row r="6" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="33"/>
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="33"/>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="33"/>
       <c r="D9" s="28"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="33"/>
     </row>
   </sheetData>
@@ -2017,10 +2211,10 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" style="10" customWidth="1"/>
     <col min="2" max="3" width="25.875" customWidth="1"/>
@@ -2031,7 +2225,7 @@
     <col min="8" max="8" width="12.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2057,7 +2251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
@@ -2078,7 +2272,7 @@
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
@@ -2140,7 +2334,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
@@ -2151,7 +2345,7 @@
     <col min="7" max="7" width="12.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
@@ -2192,7 +2386,7 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
@@ -2210,28 +2404,28 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="18"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="18"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="18"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="18"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="18"/>
     </row>
   </sheetData>
@@ -2281,7 +2475,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" style="19" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
@@ -2290,7 +2484,7 @@
     <col min="5" max="5" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2344,14 +2538,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -2366,11 +2560,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -2407,14 +2601,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -2431,16 +2625,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -2487,32 +2681,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:1" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2530,257 +2724,257 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75">
+    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="18.75">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" ht="18.75">
+    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="18.75">
+    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" ht="18.75">
+    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" ht="18.75">
+    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" ht="18.75">
+    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" ht="18.75">
+    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" ht="18.75">
+    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" ht="18.75">
+    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" ht="18.75">
+    <row r="12" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1" ht="18.75">
+    <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" ht="18.75">
+    <row r="14" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1" ht="18.75">
+    <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1" ht="18.75">
+    <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" ht="18.75">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" ht="18.75">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="18.75">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="18.75">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" ht="18.75">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" ht="18.75">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" ht="18.75">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" ht="18.75">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" ht="18.75">
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" ht="18.75">
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" ht="18.75">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" ht="18.75">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" ht="18.75">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" ht="18.75">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" ht="18.75">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" ht="18.75">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="18.75">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="18.75">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="18.75">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="18.75">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="18.75">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="18.75">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="18.75">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="18.75">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="18.75">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="18.75">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="18.75">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="18.75">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" ht="18.75">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" ht="18.75">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" ht="18.75">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" ht="18.75">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" ht="18.75">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" ht="18.75">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" ht="18.75">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" ht="18.75">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" ht="18.75">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" ht="18.75">
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" ht="18.75">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" ht="18.75">
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" ht="18.75">
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" ht="18.75">
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" ht="18.75">
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" ht="18.75">
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" ht="18.75">
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" ht="18.75">
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" ht="18.75">
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" ht="18.75">
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" ht="18.75">
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" ht="18.75">
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" ht="18.75">
+    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" ht="18.75">
+    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" ht="18.75">
+    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" ht="18.75">
+    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" ht="18.75">
+    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" ht="18.75">
+    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" ht="18.75">
+    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" ht="18.75">
+    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" ht="18.75">
+    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" ht="18.75">
+    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" ht="18.75">
+    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" ht="18.75">
+    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
     </row>
-    <row r="79" spans="1:1" ht="18.75">
+    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" ht="18.75">
+    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" ht="18.75">
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" ht="18.75">
+    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
     </row>
   </sheetData>
@@ -2828,9 +3022,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
@@ -2838,7 +3032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -2846,7 +3040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2854,7 +3048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2862,7 +3056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2870,7 +3064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2878,7 +3072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2886,7 +3080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>

--- a/xlsx2owl-Example.xlsx
+++ b/xlsx2owl-Example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F66BF-973C-48DF-B72E-D525EE4313AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033122AB-60C1-4D13-AD87-2155E27A5980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -489,6 +489,7 @@
     <author>tc={FC154D71-3886-4D09-9EE0-C2F309D61514}</author>
     <author>tc={0B832930-2D20-49F2-A1B0-F35A09A6E756}</author>
     <author>tc={2865B239-A507-41F0-A463-7B7EB9343323}</author>
+    <author>tc={11B27160-7D19-416A-AB48-83462706DCAE}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8BCC2114-AB7F-4CA7-9A44-64A29F68AA72}">
@@ -539,12 +540,20 @@
     Url to a graphical representation of the ontology, e.g. a diagram on a graph layout</t>
       </text>
     </comment>
+    <comment ref="J1" authorId="6" shapeId="0" xr:uid="{11B27160-7D19-416A-AB48-83462706DCAE}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Last translation date, will get filled in by xlsx2owl script</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>Domain</t>
   </si>
@@ -814,6 +823,9 @@
   </si>
   <si>
     <t>Author 1; Author 2</t>
+  </si>
+  <si>
+    <t>xlsx2owl_datetime</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1831,6 +1843,9 @@
   <threadedComment ref="I1" dT="2024-02-15T11:28:55.35" personId="{00000000-0000-0000-0000-000000000000}" id="{2865B239-A507-41F0-A463-7B7EB9343323}">
     <text>Url to a graphical representation of the ontology, e.g. a diagram on a graph layout</text>
   </threadedComment>
+  <threadedComment ref="J1" dT="2024-02-15T12:00:33.72" personId="{00000000-0000-0000-0000-000000000000}" id="{11B27160-7D19-416A-AB48-83462706DCAE}">
+    <text>Last translation date, will get filled in by xlsx2owl script</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2043,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2057,9 +2072,10 @@
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
@@ -2087,8 +2103,11 @@
       <c r="I1" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
